--- a/data/trans_orig/P16A_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12285</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6785</v>
+        <v>6506</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19922</v>
+        <v>19853</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02486538630294676</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01373331044934959</v>
+        <v>0.01316878127584301</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04032293125375171</v>
+        <v>0.04018242804106367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -765,19 +765,19 @@
         <v>51493</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40142</v>
+        <v>39790</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65149</v>
+        <v>66238</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1101490224601203</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08586657284290017</v>
+        <v>0.08511385817810237</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1393595417012866</v>
+        <v>0.1416890484654968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -786,19 +786,19 @@
         <v>63779</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50748</v>
+        <v>48012</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82442</v>
+        <v>79286</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06632869755005422</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05277718894427751</v>
+        <v>0.0499322138459481</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08573882151798387</v>
+        <v>0.08245571508778102</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>481779</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>474142</v>
+        <v>474211</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>487279</v>
+        <v>487558</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9751346136970532</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9596770687462483</v>
+        <v>0.9598175719589361</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9862666895506503</v>
+        <v>0.9868312187241569</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>435</v>
@@ -836,19 +836,19 @@
         <v>415996</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>402340</v>
+        <v>401251</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>427347</v>
+        <v>427699</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8898509775398797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8606404582987134</v>
+        <v>0.8583109515345032</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9141334271570999</v>
+        <v>0.9148861418218978</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>921</v>
@@ -857,19 +857,19 @@
         <v>897774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>879111</v>
+        <v>882267</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>910805</v>
+        <v>913541</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9336713024499458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9142611784820162</v>
+        <v>0.9175442849122193</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9472228110557228</v>
+        <v>0.9500677861540522</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>27346</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19081</v>
+        <v>19013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39554</v>
+        <v>38404</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03718115793952346</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02594287124881759</v>
+        <v>0.02585041899408855</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05377961168688514</v>
+        <v>0.05221517000869778</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -982,19 +982,19 @@
         <v>88143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70722</v>
+        <v>73140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105923</v>
+        <v>107873</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1409176555647297</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1130662059305849</v>
+        <v>0.116932338443016</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1693423256287951</v>
+        <v>0.1724600834583385</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -1003,19 +1003,19 @@
         <v>115489</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96237</v>
+        <v>95469</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138714</v>
+        <v>137321</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08485740760039372</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07071141029537022</v>
+        <v>0.07014745393157044</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1019219700404945</v>
+        <v>0.1008982132013937</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>708143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>695935</v>
+        <v>697085</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>716408</v>
+        <v>716476</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9628188420604765</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9462203883131148</v>
+        <v>0.9477848299913023</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9740571287511824</v>
+        <v>0.9741495810059115</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>508</v>
@@ -1053,19 +1053,19 @@
         <v>537351</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>519571</v>
+        <v>517621</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>554772</v>
+        <v>552354</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8590823444352703</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8306576743712052</v>
+        <v>0.8275399165416615</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8869337940694151</v>
+        <v>0.8830676615569839</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1181</v>
@@ -1074,19 +1074,19 @@
         <v>1245493</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1222268</v>
+        <v>1223661</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1264745</v>
+        <v>1265513</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9151425923996063</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8980780299595055</v>
+        <v>0.8991017867986062</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9292885897046298</v>
+        <v>0.9298525460684296</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>53600</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40537</v>
+        <v>41000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67086</v>
+        <v>67688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08392515621819513</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06347177798955521</v>
+        <v>0.06419650092009363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1050404659022517</v>
+        <v>0.1059823537646765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -1199,19 +1199,19 @@
         <v>99963</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82063</v>
+        <v>82444</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>120175</v>
+        <v>121703</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1449271608976755</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1189766723605142</v>
+        <v>0.1195278064724526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1742306474181008</v>
+        <v>0.1764467891183684</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -1220,19 +1220,19 @@
         <v>153563</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132583</v>
+        <v>130519</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181321</v>
+        <v>179416</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1155989045569882</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09980527116058591</v>
+        <v>0.09825192528180705</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1364943422569208</v>
+        <v>0.1350605853776541</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>585068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>571582</v>
+        <v>570980</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>598131</v>
+        <v>597668</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9160748437818049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8949595340977484</v>
+        <v>0.8940176462353234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9365282220104448</v>
+        <v>0.9358034990799063</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>564</v>
@@ -1270,19 +1270,19 @@
         <v>589781</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>569569</v>
+        <v>568041</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>607681</v>
+        <v>607300</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8550728391023246</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8257693525818992</v>
+        <v>0.8235532108816316</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8810233276394858</v>
+        <v>0.8804721935275476</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1123</v>
@@ -1291,19 +1291,19 @@
         <v>1174849</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1147091</v>
+        <v>1148996</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1195829</v>
+        <v>1197893</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8844010954430118</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8635056577430787</v>
+        <v>0.864939414622346</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9001947288394141</v>
+        <v>0.9017480747181932</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>78993</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63816</v>
+        <v>61724</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96046</v>
+        <v>96796</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1521597251353382</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1229249018844606</v>
+        <v>0.1188955834321593</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1850079987132417</v>
+        <v>0.1864528910707318</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -1416,19 +1416,19 @@
         <v>120291</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101960</v>
+        <v>102577</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>139461</v>
+        <v>139358</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2332836174689531</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1977338807458127</v>
+        <v>0.1989308933041828</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2704615759495123</v>
+        <v>0.270261185533458</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>192</v>
@@ -1437,19 +1437,19 @@
         <v>199284</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>173279</v>
+        <v>175057</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>225336</v>
+        <v>229409</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1925842792759965</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1674534291537478</v>
+        <v>0.1691718875745393</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2177604775219728</v>
+        <v>0.2216962398966214</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>440154</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>423101</v>
+        <v>422351</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>455331</v>
+        <v>457423</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8478402748646618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8149920012867585</v>
+        <v>0.8135471089292682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8770750981155394</v>
+        <v>0.8811044165678408</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>383</v>
@@ -1487,19 +1487,19 @@
         <v>395351</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>376181</v>
+        <v>376284</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>413682</v>
+        <v>413065</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7667163825310469</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7295384240504876</v>
+        <v>0.7297388144665421</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.802266119254187</v>
+        <v>0.8010691066958173</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>794</v>
@@ -1508,19 +1508,19 @@
         <v>835505</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>809453</v>
+        <v>805380</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>861510</v>
+        <v>859732</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8074157207240035</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7822395224780271</v>
+        <v>0.7783037601033795</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8325465708462522</v>
+        <v>0.8308281124254613</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>132110</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>114571</v>
+        <v>114886</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>150502</v>
+        <v>152983</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3416254235691413</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2962722097773948</v>
+        <v>0.2970847462031403</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3891869321950777</v>
+        <v>0.3956009473576361</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>175</v>
@@ -1633,19 +1633,19 @@
         <v>178777</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>157083</v>
+        <v>158965</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>196849</v>
+        <v>199920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4425320643603602</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3888321253343349</v>
+        <v>0.3934912374474107</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4872664176975325</v>
+        <v>0.4948688038593204</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>308</v>
@@ -1654,19 +1654,19 @@
         <v>310887</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>282821</v>
+        <v>286009</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>338936</v>
+        <v>338721</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.393181100258774</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3576863619458852</v>
+        <v>0.3617180001473476</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.428654677292035</v>
+        <v>0.4283831346901916</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>254600</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>236208</v>
+        <v>233727</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>272139</v>
+        <v>271824</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6583745764308587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6108130678049224</v>
+        <v>0.6043990526423639</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7037277902226052</v>
+        <v>0.7029152537968596</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>221</v>
@@ -1704,19 +1704,19 @@
         <v>225209</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>207137</v>
+        <v>204066</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>246903</v>
+        <v>245021</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5574679356396398</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5127335823024676</v>
+        <v>0.5051311961406798</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6111678746656652</v>
+        <v>0.6065087625525893</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>480</v>
@@ -1725,19 +1725,19 @@
         <v>479809</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>451760</v>
+        <v>451975</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>507875</v>
+        <v>504687</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.606818899741226</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5713453227079649</v>
+        <v>0.5716168653098084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6423136380541148</v>
+        <v>0.6382819998526523</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>129842</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>113541</v>
+        <v>113816</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146546</v>
+        <v>146438</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4437779372941556</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3880644528352614</v>
+        <v>0.3890035313142849</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5008713608907962</v>
+        <v>0.5005007991445977</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>241</v>
@@ -1850,19 +1850,19 @@
         <v>223586</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>205049</v>
+        <v>205613</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>238368</v>
+        <v>238786</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6519807360099349</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5979260844419481</v>
+        <v>0.5995687230766072</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6950830109625399</v>
+        <v>0.696304260247828</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>378</v>
@@ -1871,19 +1871,19 @@
         <v>353428</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>328195</v>
+        <v>328338</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>377227</v>
+        <v>377510</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5561271245793271</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5164220700156203</v>
+        <v>0.516647791072253</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5935743749502174</v>
+        <v>0.5940210237434381</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>162741</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>146037</v>
+        <v>146145</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>179042</v>
+        <v>178767</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5562220627058444</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4991286391092038</v>
+        <v>0.4994992008554026</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6119355471647386</v>
+        <v>0.6109964686857151</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>130</v>
@@ -1921,19 +1921,19 @@
         <v>119348</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104566</v>
+        <v>104148</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>137885</v>
+        <v>137321</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3480192639900651</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3049169890374603</v>
+        <v>0.3036957397521718</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4020739155580519</v>
+        <v>0.4004312769233925</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>296</v>
@@ -1942,19 +1942,19 @@
         <v>282089</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>258290</v>
+        <v>258007</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>307322</v>
+        <v>307179</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4438728754206729</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4064256250497827</v>
+        <v>0.4059789762565619</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4835779299843797</v>
+        <v>0.4833522089277471</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>137924</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>124621</v>
+        <v>124782</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>151431</v>
+        <v>151151</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6571459454454326</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5937662029890616</v>
+        <v>0.5945292113133476</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7215026008814076</v>
+        <v>0.7201664692865011</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>212</v>
@@ -2067,19 +2067,19 @@
         <v>244260</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>227097</v>
+        <v>225411</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>261892</v>
+        <v>259411</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7315203279878713</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6801170262345111</v>
+        <v>0.6750682007926233</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7843225324900487</v>
+        <v>0.7768940521072001</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>356</v>
@@ -2088,19 +2088,19 @@
         <v>382184</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>359966</v>
+        <v>358862</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>404033</v>
+        <v>401570</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7028145953413464</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6619570492245817</v>
+        <v>0.6599269751963063</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7429937502743833</v>
+        <v>0.7384636364378822</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>71959</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>58452</v>
+        <v>58732</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>85262</v>
+        <v>85101</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3428540545545674</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2784973991185924</v>
+        <v>0.2798335307134989</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4062337970109385</v>
+        <v>0.4054707886866519</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>78</v>
@@ -2138,19 +2138,19 @@
         <v>89648</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>72016</v>
+        <v>74497</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>106811</v>
+        <v>108497</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2684796720121287</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2156774675099513</v>
+        <v>0.2231059478927999</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3198829737654889</v>
+        <v>0.3249317992073766</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>154</v>
@@ -2159,19 +2159,19 @@
         <v>161607</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>139758</v>
+        <v>142221</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>183825</v>
+        <v>184929</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2971854046586536</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2570062497256168</v>
+        <v>0.2615363635621178</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3380429507754183</v>
+        <v>0.3400730248036939</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>572101</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>531347</v>
+        <v>530181</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>614860</v>
+        <v>616674</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1746049280542592</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.162167081398725</v>
+        <v>0.1618109975640701</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1876550404954107</v>
+        <v>0.1882087690837782</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>978</v>
@@ -2284,19 +2284,19 @@
         <v>1006514</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>952948</v>
+        <v>949422</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1056861</v>
+        <v>1057767</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2978558674088527</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2820041681539491</v>
+        <v>0.2809607638758289</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3127551671621425</v>
+        <v>0.3130232135071188</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1562</v>
@@ -2305,19 +2305,19 @@
         <v>1578614</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1514495</v>
+        <v>1511258</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1655316</v>
+        <v>1653263</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2371808704929737</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2275471858814417</v>
+        <v>0.2270608141665972</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2487050156102262</v>
+        <v>0.2483965652012778</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2704442</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2661683</v>
+        <v>2659869</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2745196</v>
+        <v>2746362</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8253950719457408</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8123449595045892</v>
+        <v>0.8117912309162223</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8378329186012747</v>
+        <v>0.8381890024359302</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2319</v>
@@ -2355,19 +2355,19 @@
         <v>2372683</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2322336</v>
+        <v>2321430</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2426249</v>
+        <v>2429775</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7021441325911474</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6872448328378575</v>
+        <v>0.6869767864928813</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7179958318460508</v>
+        <v>0.7190392361241716</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4949</v>
@@ -2376,19 +2376,19 @@
         <v>5077127</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5000425</v>
+        <v>5002478</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5141246</v>
+        <v>5144483</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7628191295070262</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7512949843897736</v>
+        <v>0.7516034347987216</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7724528141185583</v>
+        <v>0.7729391858334027</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>23763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15685</v>
+        <v>15877</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34848</v>
+        <v>35201</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05232498177021255</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0345383010385358</v>
+        <v>0.03496034806484079</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07673226588209525</v>
+        <v>0.07750978687595438</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -2744,19 +2744,19 @@
         <v>68725</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55047</v>
+        <v>56288</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83978</v>
+        <v>86363</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.159739122373123</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1279473607538911</v>
+        <v>0.1308325274877214</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1951935332627757</v>
+        <v>0.2007359484240248</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -2765,19 +2765,19 @@
         <v>92488</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75839</v>
+        <v>75776</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111776</v>
+        <v>109621</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1045796414943275</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08575460388508982</v>
+        <v>0.08568337771413873</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1263892516088986</v>
+        <v>0.1239534342275967</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>430383</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>419298</v>
+        <v>418945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>438461</v>
+        <v>438269</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9476750182297875</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9232677341179049</v>
+        <v>0.9224902131240458</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9654616989614643</v>
+        <v>0.9650396519351594</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>353</v>
@@ -2815,19 +2815,19 @@
         <v>361505</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>346252</v>
+        <v>343867</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>375183</v>
+        <v>373942</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8402608776268771</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8048064667372242</v>
+        <v>0.799264051575975</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8720526392461085</v>
+        <v>0.8691674725122787</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>775</v>
@@ -2836,19 +2836,19 @@
         <v>791888</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>772600</v>
+        <v>774755</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>808537</v>
+        <v>808600</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8954203585056725</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8736107483911015</v>
+        <v>0.8760465657724033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9142453961149107</v>
+        <v>0.9143166222858613</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>67255</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52834</v>
+        <v>52995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86877</v>
+        <v>86305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09788396649782055</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07689587584614148</v>
+        <v>0.07712993611846976</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1264430429933048</v>
+        <v>0.125609865740881</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>113</v>
@@ -2961,19 +2961,19 @@
         <v>123674</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105533</v>
+        <v>102902</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147873</v>
+        <v>144475</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2026588239591312</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1729325413993648</v>
+        <v>0.168620663301737</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2423131990383321</v>
+        <v>0.2367456143164253</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -2982,19 +2982,19 @@
         <v>190928</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>168014</v>
+        <v>162966</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>218670</v>
+        <v>217649</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1471688900998158</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1295062575030919</v>
+        <v>0.1256151754726774</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.168552408934243</v>
+        <v>0.1677656637171483</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>619832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>600210</v>
+        <v>600782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>634253</v>
+        <v>634092</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9021160335021794</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8735569570066962</v>
+        <v>0.8743901342591186</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9231041241538587</v>
+        <v>0.9228700638815303</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>458</v>
@@ -3032,19 +3032,19 @@
         <v>486581</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>462382</v>
+        <v>465780</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>504722</v>
+        <v>507353</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7973411760408687</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7576868009616679</v>
+        <v>0.7632543856835746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8270674586006351</v>
+        <v>0.8313793366982629</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1062</v>
@@ -3053,19 +3053,19 @@
         <v>1106414</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1078672</v>
+        <v>1079693</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1129328</v>
+        <v>1134376</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8528311099001843</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8314475910657571</v>
+        <v>0.8322343362828517</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.870493742496908</v>
+        <v>0.8743848245273226</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>86187</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68890</v>
+        <v>69871</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105414</v>
+        <v>106299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1263999691871116</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1010321299857554</v>
+        <v>0.1024700290331637</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1545976322375188</v>
+        <v>0.1558943327976458</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>162</v>
@@ -3178,19 +3178,19 @@
         <v>172040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>150435</v>
+        <v>149542</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>199185</v>
+        <v>196596</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.242019531083722</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2116270841881221</v>
+        <v>0.2103710585062161</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2802073260578711</v>
+        <v>0.2765652473099617</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>241</v>
@@ -3199,19 +3199,19 @@
         <v>258227</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>227347</v>
+        <v>229761</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>291421</v>
+        <v>291250</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.185412964830707</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1632407833206856</v>
+        <v>0.1649734568887086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2092471378770044</v>
+        <v>0.2091243899694183</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>595676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>576449</v>
+        <v>575564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>612973</v>
+        <v>611992</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8736000308128884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.845402367762481</v>
+        <v>0.8441056672023541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8989678700142446</v>
+        <v>0.8975299709668363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>505</v>
@@ -3249,19 +3249,19 @@
         <v>538810</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>511665</v>
+        <v>514254</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>560415</v>
+        <v>561308</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.757980468916278</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7197926739421289</v>
+        <v>0.7234347526900384</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7883729158118779</v>
+        <v>0.7896289414937839</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1077</v>
@@ -3270,19 +3270,19 @@
         <v>1134485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1101291</v>
+        <v>1101462</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1165365</v>
+        <v>1162951</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.814587035169293</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7907528621229956</v>
+        <v>0.7908756100305817</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.836759216679314</v>
+        <v>0.8350265431112914</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>108073</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89853</v>
+        <v>89250</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129912</v>
+        <v>128090</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1758377739381947</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1461938241660967</v>
+        <v>0.1452119121046126</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2113700113665546</v>
+        <v>0.208406197143036</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>179</v>
@@ -3395,19 +3395,19 @@
         <v>204084</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>180020</v>
+        <v>180726</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>225458</v>
+        <v>230054</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3311988105681</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2921460003024061</v>
+        <v>0.2932917910444851</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3658854274388193</v>
+        <v>0.3733438921152923</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>276</v>
@@ -3416,19 +3416,19 @@
         <v>312157</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>280055</v>
+        <v>279382</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>345804</v>
+        <v>344855</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2536181636367448</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.227536225656964</v>
+        <v>0.2269892269500285</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2809549150554036</v>
+        <v>0.2801843494365797</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>506544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>484705</v>
+        <v>486527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>524764</v>
+        <v>525367</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8241622260618052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7886299886334454</v>
+        <v>0.7915938028569641</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8538061758339033</v>
+        <v>0.8547880878953874</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>360</v>
@@ -3466,19 +3466,19 @@
         <v>412115</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>390741</v>
+        <v>386145</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>436179</v>
+        <v>435473</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6688011894319</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6341145725611808</v>
+        <v>0.6266561078847076</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7078539996975939</v>
+        <v>0.7067082089555148</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>811</v>
@@ -3487,19 +3487,19 @@
         <v>918659</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>885012</v>
+        <v>885961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>950761</v>
+        <v>951434</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7463818363632552</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7190450849445964</v>
+        <v>0.7198156505634202</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7724637743430359</v>
+        <v>0.7730107730499715</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>175346</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153739</v>
+        <v>155831</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>197516</v>
+        <v>196892</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4083246265148512</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3580089095060752</v>
+        <v>0.36288047536943</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4599506677170773</v>
+        <v>0.4584982082316691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>233</v>
@@ -3612,19 +3612,19 @@
         <v>253361</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>230379</v>
+        <v>231395</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>274563</v>
+        <v>275805</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5657912130753091</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5144682613915061</v>
+        <v>0.5167366865691014</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6131377830098864</v>
+        <v>0.6159110190306005</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>394</v>
@@ -3633,19 +3633,19 @@
         <v>428708</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>397075</v>
+        <v>398383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>457949</v>
+        <v>458098</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.488706744074239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4526464035643749</v>
+        <v>0.4541383922506912</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5220400275364322</v>
+        <v>0.5222099496598229</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>254083</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>231913</v>
+        <v>232537</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>275690</v>
+        <v>273598</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5916753734851488</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5400493322829227</v>
+        <v>0.541501791768331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6419910904939248</v>
+        <v>0.63711952463057</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>173</v>
@@ -3683,19 +3683,19 @@
         <v>194439</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>173237</v>
+        <v>171995</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217421</v>
+        <v>216405</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4342087869246909</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3868622169901136</v>
+        <v>0.3840889809693995</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4855317386084939</v>
+        <v>0.4832633134308986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>405</v>
@@ -3704,19 +3704,19 @@
         <v>448521</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>419280</v>
+        <v>419131</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>480154</v>
+        <v>478846</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.511293255925761</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4779599724635678</v>
+        <v>0.477790050340177</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5473535964356251</v>
+        <v>0.5458616077493087</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>205726</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>186877</v>
+        <v>188944</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>221815</v>
+        <v>223900</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6640894726498611</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6032440348533179</v>
+        <v>0.6099192591483872</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.716025977878496</v>
+        <v>0.7227567535669072</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>255</v>
@@ -3829,19 +3829,19 @@
         <v>261306</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>245266</v>
+        <v>242811</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>277418</v>
+        <v>277035</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7381602512578967</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6928505514995933</v>
+        <v>0.6859152884109363</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7836755512798627</v>
+        <v>0.7825932493075087</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>442</v>
@@ -3850,19 +3850,19 @@
         <v>467031</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>442451</v>
+        <v>444151</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>489962</v>
+        <v>491220</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7035915262499294</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6665608410687749</v>
+        <v>0.669121272298187</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7381371013772159</v>
+        <v>0.7400322722214683</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>104060</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87971</v>
+        <v>85886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>122909</v>
+        <v>120842</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3359105273501389</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.283974022121504</v>
+        <v>0.2772432464330929</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3967559651466821</v>
+        <v>0.390080740851613</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>89</v>
@@ -3900,19 +3900,19 @@
         <v>92690</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76578</v>
+        <v>76961</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>108730</v>
+        <v>111185</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2618397487421033</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2163244487201372</v>
+        <v>0.2174067506924912</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3071494485004068</v>
+        <v>0.3140847115890639</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>184</v>
@@ -3921,19 +3921,19 @@
         <v>196751</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>173820</v>
+        <v>172562</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>221331</v>
+        <v>219631</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2964084737500706</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2618628986227841</v>
+        <v>0.2599677277785317</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3334391589312252</v>
+        <v>0.330878727701813</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>199212</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>184733</v>
+        <v>185096</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>210918</v>
+        <v>211287</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7973219366268557</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7393737258050505</v>
+        <v>0.7408259440665277</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8441734628984801</v>
+        <v>0.8456509459418627</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>307</v>
@@ -4046,19 +4046,19 @@
         <v>340288</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>325477</v>
+        <v>325300</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>353476</v>
+        <v>353616</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8748246447885208</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8367464571276927</v>
+        <v>0.8362925131989618</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9087281806568523</v>
+        <v>0.9090865775522811</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>482</v>
@@ -4067,19 +4067,19 @@
         <v>539500</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>519065</v>
+        <v>518835</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>555613</v>
+        <v>556255</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8445127898468588</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8125242753351429</v>
+        <v>0.8121647975763283</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8697351518819195</v>
+        <v>0.8707408163796548</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>50639</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>38933</v>
+        <v>38564</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>65118</v>
+        <v>64755</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2026780633731444</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.15582653710152</v>
+        <v>0.1543490540581373</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2606262741949496</v>
+        <v>0.2591740559334724</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>43</v>
@@ -4117,19 +4117,19 @@
         <v>48691</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>35503</v>
+        <v>35363</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>63502</v>
+        <v>63679</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1251753552114791</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09127181934314778</v>
+        <v>0.09091342244771895</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1632535428723074</v>
+        <v>0.1637074868010385</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>90</v>
@@ -4138,19 +4138,19 @@
         <v>99330</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>83217</v>
+        <v>82575</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>119765</v>
+        <v>119995</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1554872101531411</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1302648481180804</v>
+        <v>0.1292591836203451</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1874757246648569</v>
+        <v>0.1878352024236715</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>865562</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>808433</v>
+        <v>809937</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>920273</v>
+        <v>923183</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2525876616565865</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2359163946098933</v>
+        <v>0.2363552998640854</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2685533183889923</v>
+        <v>0.2694024069474839</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1317</v>
@@ -4263,19 +4263,19 @@
         <v>1423478</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1368524</v>
+        <v>1365042</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1487093</v>
+        <v>1485925</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4000432683627744</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3845994062765402</v>
+        <v>0.3836209088048492</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4179212969313246</v>
+        <v>0.4175928916533557</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2103</v>
@@ -4284,19 +4284,19 @@
         <v>2289040</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2202425</v>
+        <v>2208685</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2374583</v>
+        <v>2363805</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3277037703365476</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3153037823008362</v>
+        <v>0.3162000005884409</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3399503918535019</v>
+        <v>0.3384073384178909</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2561217</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2506506</v>
+        <v>2503596</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2618346</v>
+        <v>2616842</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7474123383434136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7314466816110077</v>
+        <v>0.7305975930525163</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7640836053901068</v>
+        <v>0.7636447001359148</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1981</v>
@@ -4334,19 +4334,19 @@
         <v>2134831</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2071216</v>
+        <v>2072384</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2189785</v>
+        <v>2193267</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5999567316372255</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5820787030686755</v>
+        <v>0.5824071083466442</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6154005937234599</v>
+        <v>0.6163790911951508</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4404</v>
@@ -4355,19 +4355,19 @@
         <v>4696048</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4610505</v>
+        <v>4621283</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4782663</v>
+        <v>4776403</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6722962296634524</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.660049608146498</v>
+        <v>0.6615926615821091</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6846962176991638</v>
+        <v>0.6837999994115591</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>15691</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8769</v>
+        <v>9141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26081</v>
+        <v>25965</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03740820464321435</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02090605266785831</v>
+        <v>0.02179129310205288</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06217703549550222</v>
+        <v>0.06190028690936751</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -4723,19 +4723,19 @@
         <v>43235</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32803</v>
+        <v>32569</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56269</v>
+        <v>56644</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.109245778211183</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08288705103119073</v>
+        <v>0.08229559985641147</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.142180804828257</v>
+        <v>0.14312932651635</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -4744,19 +4744,19 @@
         <v>58926</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45991</v>
+        <v>45399</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75490</v>
+        <v>74312</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07228240895275861</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05641551408046376</v>
+        <v>0.05568902984541027</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09260135821170787</v>
+        <v>0.09115602822896819</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>403772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>393382</v>
+        <v>393498</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>410694</v>
+        <v>410322</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9625917953567856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9378229645044976</v>
+        <v>0.9380997130906324</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9790939473321416</v>
+        <v>0.9782087068979471</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>360</v>
@@ -4794,19 +4794,19 @@
         <v>352520</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>339486</v>
+        <v>339111</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>362952</v>
+        <v>363186</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8907542217888169</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.857819195171743</v>
+        <v>0.8568706734836499</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9171129489688092</v>
+        <v>0.9177044001435883</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>739</v>
@@ -4815,19 +4815,19 @@
         <v>756292</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>739728</v>
+        <v>740906</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>769227</v>
+        <v>769819</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9277175910472414</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9073986417882922</v>
+        <v>0.9088439717710319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9435844859195363</v>
+        <v>0.9443109701545898</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>46111</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34850</v>
+        <v>33049</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61555</v>
+        <v>58608</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07808807045629955</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05901774125889885</v>
+        <v>0.05596888405834546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1042430227433375</v>
+        <v>0.09925231413799389</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -4940,19 +4940,19 @@
         <v>82919</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66876</v>
+        <v>67123</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100291</v>
+        <v>99696</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1471380892940102</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1186708267950439</v>
+        <v>0.1191081290253145</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1779642627298936</v>
+        <v>0.1769082116450372</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>129</v>
@@ -4961,19 +4961,19 @@
         <v>129029</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108780</v>
+        <v>109217</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150277</v>
+        <v>152426</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1118067490167438</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09425974768623832</v>
+        <v>0.09463858049297078</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1302180532493217</v>
+        <v>0.1320807704732265</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>544385</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>528941</v>
+        <v>531888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>555646</v>
+        <v>557447</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9219119295437005</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8957569772566627</v>
+        <v>0.900747685862006</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9409822587411012</v>
+        <v>0.9440311159416541</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>495</v>
@@ -5011,19 +5011,19 @@
         <v>480625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463253</v>
+        <v>463848</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496668</v>
+        <v>496421</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8528619107059898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8220357372701064</v>
+        <v>0.8230917883549628</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8813291732049561</v>
+        <v>0.8808918709746855</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1017</v>
@@ -5032,19 +5032,19 @@
         <v>1025011</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1003763</v>
+        <v>1001614</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1045260</v>
+        <v>1044823</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8881932509832562</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.869781946750678</v>
+        <v>0.8679192295267736</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9057402523137613</v>
+        <v>0.9053614195070293</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>67953</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53626</v>
+        <v>51502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87131</v>
+        <v>84248</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1015586064683219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0801465293481029</v>
+        <v>0.07697192760526363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1302220831245453</v>
+        <v>0.1259133448357376</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -5157,19 +5157,19 @@
         <v>115402</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96953</v>
+        <v>96938</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135673</v>
+        <v>134749</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1744850625042105</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1465912347087697</v>
+        <v>0.1465681530666198</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2051343150134179</v>
+        <v>0.2037378682857753</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -5178,19 +5178,19 @@
         <v>183355</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>160318</v>
+        <v>160416</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>210907</v>
+        <v>210463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1378105228926424</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1204958384856286</v>
+        <v>0.1205697774216934</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1585190057218327</v>
+        <v>0.1581852103065134</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>601144</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>581966</v>
+        <v>584849</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>615471</v>
+        <v>617595</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8984413935316781</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8697779168754547</v>
+        <v>0.8740866551642629</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9198534706518972</v>
+        <v>0.9230280723947364</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>549</v>
@@ -5228,19 +5228,19 @@
         <v>545984</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>525713</v>
+        <v>526637</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>564433</v>
+        <v>564448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8255149374957895</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7948656849865822</v>
+        <v>0.7962621317142248</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8534087652912304</v>
+        <v>0.8534318469333803</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1122</v>
@@ -5249,19 +5249,19 @@
         <v>1147128</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1119576</v>
+        <v>1120020</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1170165</v>
+        <v>1170067</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8621894771073576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8414809942781674</v>
+        <v>0.8418147896934864</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8795041615143715</v>
+        <v>0.8794302225783065</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>123521</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>103864</v>
+        <v>105396</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146165</v>
+        <v>147430</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1911948168676501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1607680206329858</v>
+        <v>0.1631388494859302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2262440870822306</v>
+        <v>0.2282024135529609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>164</v>
@@ -5374,19 +5374,19 @@
         <v>177715</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>152877</v>
+        <v>154815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>203889</v>
+        <v>199333</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2737962398617826</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2355291402746526</v>
+        <v>0.2385162340461758</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3141213291286572</v>
+        <v>0.307101885838283</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>276</v>
@@ -5395,19 +5395,19 @@
         <v>301236</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>268246</v>
+        <v>270878</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>332168</v>
+        <v>331910</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2325921097747369</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2071196015261645</v>
+        <v>0.2091521170573299</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2564753195937842</v>
+        <v>0.2562762539734013</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>522527</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>499883</v>
+        <v>498618</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>542184</v>
+        <v>540652</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8088051831323498</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7737559129177695</v>
+        <v>0.771797586447039</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.839231979367014</v>
+        <v>0.8368611505140698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>438</v>
@@ -5445,19 +5445,19 @@
         <v>471362</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>445188</v>
+        <v>449744</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>496200</v>
+        <v>494262</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7262037601382174</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6858786708713428</v>
+        <v>0.692898114161717</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7644708597253473</v>
+        <v>0.7614837659538241</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>908</v>
@@ -5466,19 +5466,19 @@
         <v>993889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>962957</v>
+        <v>963215</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1026879</v>
+        <v>1024247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7674078902252631</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7435246804062159</v>
+        <v>0.7437237460265985</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7928803984738356</v>
+        <v>0.7908478829426701</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>165574</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>144079</v>
+        <v>145873</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>186962</v>
+        <v>187523</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3464479836552419</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3014728988249858</v>
+        <v>0.3052265233479503</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3912006124253282</v>
+        <v>0.3923755088820119</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>231</v>
@@ -5591,19 +5591,19 @@
         <v>260201</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>238352</v>
+        <v>235480</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>282431</v>
+        <v>284329</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.523701474580091</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4797270578410066</v>
+        <v>0.4739458232030884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5684442632243494</v>
+        <v>0.5722650852013831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>378</v>
@@ -5612,19 +5612,19 @@
         <v>425774</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>392107</v>
+        <v>393066</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>456223</v>
+        <v>458591</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4367959539610878</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4022573857391136</v>
+        <v>0.4032412562844497</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4680330710014733</v>
+        <v>0.4704618262188905</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>312344</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>290956</v>
+        <v>290395</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>333839</v>
+        <v>332045</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6535520163447581</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6087993875746721</v>
+        <v>0.6076244911179881</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6985271011750143</v>
+        <v>0.6947734766520501</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>202</v>
@@ -5662,19 +5662,19 @@
         <v>236648</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>214418</v>
+        <v>212520</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>258497</v>
+        <v>261369</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.476298525419909</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.431555736775651</v>
+        <v>0.4277349147986168</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5202729421589934</v>
+        <v>0.5260541767969115</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>479</v>
@@ -5683,19 +5683,19 @@
         <v>548993</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>518544</v>
+        <v>516176</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>582660</v>
+        <v>581701</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5632040460389123</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5319669289985266</v>
+        <v>0.5295381737811095</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5977426142608862</v>
+        <v>0.5967587437155503</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>175482</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>156005</v>
+        <v>158813</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>193223</v>
+        <v>194631</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5248751307288871</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4666201337319984</v>
+        <v>0.4750184120541785</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5779414018329639</v>
+        <v>0.5821530213261484</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>229</v>
@@ -5808,19 +5808,19 @@
         <v>243527</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>224831</v>
+        <v>222711</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>262079</v>
+        <v>260569</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6446559024355564</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5951666403624836</v>
+        <v>0.5895539149460057</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6937671268029975</v>
+        <v>0.6897693901563556</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>400</v>
@@ -5829,19 +5829,19 @@
         <v>419008</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>393533</v>
+        <v>393476</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>449072</v>
+        <v>446177</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5884183584135534</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5526427797674626</v>
+        <v>0.5525632819108032</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6306373718743842</v>
+        <v>0.6265720097438223</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>158848</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>141107</v>
+        <v>139699</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>178325</v>
+        <v>175517</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4751248692711129</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.422058598167036</v>
+        <v>0.4178469786738516</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5333798662680016</v>
+        <v>0.5249815879458214</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>125</v>
@@ -5879,19 +5879,19 @@
         <v>134235</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>115683</v>
+        <v>117193</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152931</v>
+        <v>155051</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3553440975644436</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3062328731970026</v>
+        <v>0.3102306098436439</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4048333596375164</v>
+        <v>0.4104460850539934</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>279</v>
@@ -5900,19 +5900,19 @@
         <v>293084</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>263020</v>
+        <v>265915</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>318559</v>
+        <v>318616</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4115816415864466</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3693626281256158</v>
+        <v>0.3734279902561775</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4473572202325372</v>
+        <v>0.4474367180891968</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>184635</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>170451</v>
+        <v>171155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>197419</v>
+        <v>196339</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7184309296722106</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6632386036316651</v>
+        <v>0.6659794536150841</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7681750369069232</v>
+        <v>0.7639714216611906</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>233</v>
@@ -6025,19 +6025,19 @@
         <v>310838</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>289936</v>
+        <v>291721</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>329101</v>
+        <v>329562</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7767680218733951</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7245342520708071</v>
+        <v>0.7289940526218734</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8224054015723682</v>
+        <v>0.8235569536774132</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>448</v>
@@ -6046,19 +6046,19 @@
         <v>495474</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>471736</v>
+        <v>470226</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>518595</v>
+        <v>518029</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7539541616638262</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7178332278803611</v>
+        <v>0.715535233024206</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7891371163739592</v>
+        <v>0.788275992921925</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>72363</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>59579</v>
+        <v>60659</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>86547</v>
+        <v>85843</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2815690703277894</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.231824963093077</v>
+        <v>0.2360285783388095</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.336761396368335</v>
+        <v>0.3340205463849159</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>68</v>
@@ -6096,19 +6096,19 @@
         <v>89331</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>71068</v>
+        <v>70607</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>110233</v>
+        <v>108448</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2232319781266049</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1775945984276318</v>
+        <v>0.1764430463225869</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2754657479291927</v>
+        <v>0.2710059473781269</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>155</v>
@@ -6117,19 +6117,19 @@
         <v>161693</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>138572</v>
+        <v>139138</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>185431</v>
+        <v>186941</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2460458383361738</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2108628836260408</v>
+        <v>0.211724007078075</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2821667721196391</v>
+        <v>0.284464766975794</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>778966</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>727453</v>
+        <v>726534</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>825578</v>
+        <v>823441</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2294890506953988</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2143130378385566</v>
+        <v>0.2140421273941102</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2432211743021607</v>
+        <v>0.2425915834669733</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1101</v>
@@ -6242,19 +6242,19 @@
         <v>1233836</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1173318</v>
+        <v>1171096</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1296841</v>
+        <v>1291898</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3480945393985906</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3310209156712248</v>
+        <v>0.330394044515654</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3658697484075641</v>
+        <v>0.3644753589976356</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1870</v>
@@ -6263,19 +6263,19 @@
         <v>2012802</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1933530</v>
+        <v>1940586</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2094580</v>
+        <v>2091869</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2900753972318618</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.278651129595837</v>
+        <v>0.2796680095254647</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3018608980188818</v>
+        <v>0.3014701974636741</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2615384</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2568772</v>
+        <v>2570909</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2666897</v>
+        <v>2667816</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7705109493046012</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7567788256978398</v>
+        <v>0.7574084165330267</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7856869621614436</v>
+        <v>0.7859578726058898</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2237</v>
@@ -6313,19 +6313,19 @@
         <v>2310706</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2247701</v>
+        <v>2252644</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2371224</v>
+        <v>2373446</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6519054606014094</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6341302515924359</v>
+        <v>0.6355246410023644</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6689790843287753</v>
+        <v>0.669605955484346</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4699</v>
@@ -6334,19 +6334,19 @@
         <v>4926090</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4844312</v>
+        <v>4847023</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5005362</v>
+        <v>4998306</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7099246027681382</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6981391019811186</v>
+        <v>0.6985298025363259</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.721348870404163</v>
+        <v>0.7203319904745352</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>38471</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21952</v>
+        <v>21835</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61463</v>
+        <v>62255</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09434028613744039</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05383048994834994</v>
+        <v>0.05354339234125977</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1507212578835951</v>
+        <v>0.1526627355702333</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -6702,19 +6702,19 @@
         <v>53799</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37702</v>
+        <v>36068</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77602</v>
+        <v>79900</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1484052174499217</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1040023833521523</v>
+        <v>0.09949506638814508</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2140664570766138</v>
+        <v>0.2204072066706104</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -6723,19 +6723,19 @@
         <v>92270</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67086</v>
+        <v>69264</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>122497</v>
+        <v>122937</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1197836937087283</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08709081073089135</v>
+        <v>0.08991778233036228</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1590238374648897</v>
+        <v>0.1595956336765776</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>369322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>346330</v>
+        <v>345538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>385841</v>
+        <v>385958</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9056597138625598</v>
+        <v>0.9056597138625596</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8492787421164045</v>
+        <v>0.8473372644297666</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9461695100516501</v>
+        <v>0.9464566076587407</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>180</v>
@@ -6773,19 +6773,19 @@
         <v>308713</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>284910</v>
+        <v>282612</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>324810</v>
+        <v>326444</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8515947825500784</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7859335429233861</v>
+        <v>0.7795927933293896</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8959976166478474</v>
+        <v>0.9005049336118547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>337</v>
@@ -6794,19 +6794,19 @@
         <v>678035</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>647808</v>
+        <v>647368</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>703219</v>
+        <v>701041</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8802163062912719</v>
+        <v>0.8802163062912716</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8409761625351103</v>
+        <v>0.8404043663234219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9129091892691085</v>
+        <v>0.9100822176696378</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>59823</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43603</v>
+        <v>42862</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80629</v>
+        <v>82601</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1254439471732537</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09143132722708001</v>
+        <v>0.08987779759428965</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1690715607129886</v>
+        <v>0.1732066535637926</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -6919,19 +6919,19 @@
         <v>88453</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71173</v>
+        <v>71372</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106764</v>
+        <v>107631</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.176294683256596</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1418553226244446</v>
+        <v>0.1422509345916998</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2127903650363167</v>
+        <v>0.2145177816271054</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -6940,19 +6940,19 @@
         <v>148276</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>124673</v>
+        <v>122985</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>176635</v>
+        <v>176571</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1515147382181742</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1273960648321935</v>
+        <v>0.1256710231066259</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1804933055392308</v>
+        <v>0.1804275653704745</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>417067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>396261</v>
+        <v>394289</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>433287</v>
+        <v>434028</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8745560528267463</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8309284392870105</v>
+        <v>0.8267933464362074</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9085686727729195</v>
+        <v>0.9101222024057104</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>383</v>
@@ -6990,19 +6990,19 @@
         <v>413280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>394969</v>
+        <v>394102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>430560</v>
+        <v>430361</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.823705316743404</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7872096349636833</v>
+        <v>0.7854822183728944</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8581446773755554</v>
+        <v>0.8577490654082999</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>649</v>
@@ -7011,19 +7011,19 @@
         <v>830347</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>801988</v>
+        <v>802052</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>853950</v>
+        <v>855638</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8484852617818257</v>
+        <v>0.8484852617818259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8195066944607694</v>
+        <v>0.8195724346295254</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8726039351678065</v>
+        <v>0.8743289768933741</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>86715</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70505</v>
+        <v>67997</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106762</v>
+        <v>104131</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1396739853182354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.113563709239877</v>
+        <v>0.1095252838924803</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1719652878631409</v>
+        <v>0.1677272865752261</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>188</v>
@@ -7136,19 +7136,19 @@
         <v>136165</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117673</v>
+        <v>120288</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>154103</v>
+        <v>153181</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2184949481677506</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1888230908545558</v>
+        <v>0.1930193811748326</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2472797720192314</v>
+        <v>0.2458000759522678</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>266</v>
@@ -7157,19 +7157,19 @@
         <v>222879</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>198714</v>
+        <v>198363</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>249362</v>
+        <v>248648</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1791590979584267</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1597341311347757</v>
+        <v>0.1594523234898359</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.200447141118485</v>
+        <v>0.1998732353337208</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>534122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>514075</v>
+        <v>516706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>550332</v>
+        <v>552840</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8603260146817647</v>
+        <v>0.8603260146817645</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8280347121368591</v>
+        <v>0.8322727134247738</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.886436290760123</v>
+        <v>0.8904747161075196</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>660</v>
@@ -7207,19 +7207,19 @@
         <v>487028</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>469090</v>
+        <v>470012</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>505520</v>
+        <v>502905</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7815050518322494</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7527202279807685</v>
+        <v>0.7541999240477321</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8111769091454442</v>
+        <v>0.8069806188251673</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1128</v>
@@ -7228,19 +7228,19 @@
         <v>1021150</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>994667</v>
+        <v>995381</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1045315</v>
+        <v>1045666</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8208409020415733</v>
+        <v>0.820840902041573</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7995528588815148</v>
+        <v>0.8001267646662793</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8402658688652243</v>
+        <v>0.8405476765101639</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>186105</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>164735</v>
+        <v>163327</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>211460</v>
+        <v>211109</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2656308136106686</v>
+        <v>0.2656308136106685</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2351279406296121</v>
+        <v>0.2331186968186677</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3018190355639079</v>
+        <v>0.3013180652440951</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>385</v>
@@ -7353,19 +7353,19 @@
         <v>248345</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>230650</v>
+        <v>229080</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>270704</v>
+        <v>269217</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3370201178965844</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3130058836178716</v>
+        <v>0.3108764361275938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.367362020073667</v>
+        <v>0.3653441160349059</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>556</v>
@@ -7374,19 +7374,19 @@
         <v>434451</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>403221</v>
+        <v>402177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>465100</v>
+        <v>467190</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3022260666968358</v>
+        <v>0.3022260666968359</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2805009662644163</v>
+        <v>0.2797747565950577</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3235466104579083</v>
+        <v>0.325000655295129</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>514512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>489157</v>
+        <v>489508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>535882</v>
+        <v>537290</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7343691863893315</v>
+        <v>0.7343691863893314</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6981809644360919</v>
+        <v>0.6986819347559047</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7648720593703876</v>
+        <v>0.7668813031813322</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>756</v>
@@ -7424,19 +7424,19 @@
         <v>488541</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>466182</v>
+        <v>467669</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>506236</v>
+        <v>507806</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6629798821034156</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.632637979926333</v>
+        <v>0.6346558839650941</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6869941163821284</v>
+        <v>0.6891235638724061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1250</v>
@@ -7445,19 +7445,19 @@
         <v>1003053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>972404</v>
+        <v>970314</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1034283</v>
+        <v>1035327</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.697773933303164</v>
+        <v>0.6977739333031643</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6764533895420916</v>
+        <v>0.674999344704871</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7194990337355837</v>
+        <v>0.7202252434049422</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>251065</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>229219</v>
+        <v>230071</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>273986</v>
+        <v>274226</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4120240009420548</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3761729429265185</v>
+        <v>0.3775707459117857</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4496396287796476</v>
+        <v>0.4500338718113199</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>520</v>
@@ -7570,19 +7570,19 @@
         <v>315746</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>296047</v>
+        <v>297988</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>334170</v>
+        <v>335216</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5185891814196871</v>
+        <v>0.5185891814196872</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4862350784607986</v>
+        <v>0.4894233334761891</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5488505579327717</v>
+        <v>0.5505682680028369</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>797</v>
@@ -7591,19 +7591,19 @@
         <v>566811</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>537918</v>
+        <v>533516</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>598388</v>
+        <v>595559</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4652851135674959</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4415675114478418</v>
+        <v>0.4379538937573392</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4912057817237537</v>
+        <v>0.4888833599461938</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>358281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>335360</v>
+        <v>335120</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>380127</v>
+        <v>379275</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5879759990579452</v>
+        <v>0.5879759990579453</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5503603712203523</v>
+        <v>0.5499661281886803</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6238270570734813</v>
+        <v>0.6224292540882143</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>482</v>
@@ -7641,19 +7641,19 @@
         <v>293109</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>274685</v>
+        <v>273639</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>312808</v>
+        <v>310867</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4814108185803128</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4511494420672286</v>
+        <v>0.4494317319971634</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5137649215392016</v>
+        <v>0.510576666523811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>868</v>
@@ -7662,19 +7662,19 @@
         <v>651391</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>619814</v>
+        <v>622643</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>680284</v>
+        <v>684686</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5347148864325041</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5087942182762459</v>
+        <v>0.5111166400538062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5584324885521583</v>
+        <v>0.5620461062426605</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>213729</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>197484</v>
+        <v>195092</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>231633</v>
+        <v>229574</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5250295928206634</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4851221090967565</v>
+        <v>0.4792484979722826</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5690116611166167</v>
+        <v>0.5639523098402853</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>556</v>
@@ -7787,19 +7787,19 @@
         <v>294050</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>279666</v>
+        <v>280669</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>307465</v>
+        <v>307584</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6695652631111075</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.636811420684308</v>
+        <v>0.6390955439929741</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7001114899436027</v>
+        <v>0.7003827351787519</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>862</v>
@@ -7808,19 +7808,19 @@
         <v>507779</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>484478</v>
+        <v>485126</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>529834</v>
+        <v>531088</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6000375521238136</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5725030776892361</v>
+        <v>0.5732684960967186</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6260993023005649</v>
+        <v>0.6275805679931362</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>193351</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>175447</v>
+        <v>177506</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>209596</v>
+        <v>211988</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4749704071793366</v>
+        <v>0.4749704071793365</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4309883388833833</v>
+        <v>0.4360476901597148</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5148778909032439</v>
+        <v>0.5207515020277176</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>271</v>
@@ -7858,19 +7858,19 @@
         <v>145116</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>131701</v>
+        <v>131582</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159500</v>
+        <v>158497</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3304347368888925</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2998885100563974</v>
+        <v>0.299617264821249</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3631885793156922</v>
+        <v>0.360904456007026</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>535</v>
@@ -7879,19 +7879,19 @@
         <v>338467</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>316412</v>
+        <v>315158</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>361768</v>
+        <v>361120</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3999624478761863</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.373900697699435</v>
+        <v>0.372419432006864</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4274969223107641</v>
+        <v>0.4267315039032815</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>210655</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>195074</v>
+        <v>196608</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>223663</v>
+        <v>224402</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6790983243042461</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6288680065459564</v>
+        <v>0.6338152458065126</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7210339155222006</v>
+        <v>0.723414285220387</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>725</v>
@@ -8004,19 +8004,19 @@
         <v>374768</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>361478</v>
+        <v>360941</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>387650</v>
+        <v>386822</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8066316925554123</v>
+        <v>0.8066316925554122</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7780262097004151</v>
+        <v>0.7768697142878305</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8343574013539365</v>
+        <v>0.8325746477217412</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1049</v>
@@ -8025,19 +8025,19 @@
         <v>585423</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>566464</v>
+        <v>566705</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>604094</v>
+        <v>604092</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7555730096482994</v>
+        <v>0.7555730096482993</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7311037263341458</v>
+        <v>0.7314142472531681</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7796704538860481</v>
+        <v>0.7796671463474042</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>99543</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86535</v>
+        <v>85796</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>115124</v>
+        <v>113590</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3209016756957537</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2789660844777994</v>
+        <v>0.276585714779613</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3711319934540439</v>
+        <v>0.3661847541934873</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>156</v>
@@ -8075,19 +8075,19 @@
         <v>89841</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>76959</v>
+        <v>77787</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>103131</v>
+        <v>103668</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1933683074445878</v>
+        <v>0.1933683074445877</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1656425986460634</v>
+        <v>0.1674253522782589</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.221973790299585</v>
+        <v>0.2231302857121698</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>290</v>
@@ -8096,19 +8096,19 @@
         <v>189384</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>170713</v>
+        <v>170715</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>208343</v>
+        <v>208102</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2444269903517006</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2203295461139519</v>
+        <v>0.2203328536525959</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2688962736658542</v>
+        <v>0.2685857527468319</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1046564</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>995477</v>
+        <v>988017</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1104283</v>
+        <v>1105893</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2962452644078141</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2817844337124596</v>
+        <v>0.279672693088771</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3125834626981234</v>
+        <v>0.313039322144691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2479</v>
@@ -8221,19 +8221,19 @@
         <v>1511326</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1454484</v>
+        <v>1455857</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1558265</v>
+        <v>1564461</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4044272088066748</v>
+        <v>0.4044272088066747</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3892165264919744</v>
+        <v>0.3895839724207166</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4169880532585944</v>
+        <v>0.4186461278401625</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3686</v>
@@ -8242,19 +8242,19 @@
         <v>2557890</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2480578</v>
+        <v>2468512</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2627536</v>
+        <v>2632182</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3518555473516288</v>
+        <v>0.3518555473516289</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3412208082512383</v>
+        <v>0.3395609369117333</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3614358832386632</v>
+        <v>0.362074918592791</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2486198</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2428479</v>
+        <v>2426869</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2537285</v>
+        <v>2544745</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7037547355921862</v>
+        <v>0.703754735592186</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6874165373018769</v>
+        <v>0.6869606778553089</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7182155662875406</v>
+        <v>0.720327306911229</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2888</v>
@@ -8292,19 +8292,19 @@
         <v>2225628</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2178689</v>
+        <v>2172493</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2282470</v>
+        <v>2281097</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5955727911933254</v>
+        <v>0.5955727911933253</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5830119467414053</v>
+        <v>0.5813538721598376</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6107834735080256</v>
+        <v>0.6104160275792834</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5057</v>
@@ -8313,19 +8313,19 @@
         <v>4711826</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4642180</v>
+        <v>4637534</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4789138</v>
+        <v>4801204</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6481444526483711</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6385641167613368</v>
+        <v>0.637925081407209</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6587791917487616</v>
+        <v>0.6604390630882666</v>
       </c>
     </row>
     <row r="27">
